--- a/downloads/Age Distribution template.xlsx
+++ b/downloads/Age Distribution template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="2920" windowWidth="25360" windowHeight="13380" tabRatio="500"/>
+    <workbookView xWindow="11080" yWindow="1060" windowWidth="35940" windowHeight="18020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Assumption -  Mem Dist by Age" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>% of Members</t>
   </si>
@@ -36,13 +36,38 @@
   </si>
   <si>
     <t>MEMBER DISTRIBUTION BY AGE BAND</t>
+  </si>
+  <si>
+    <t>FILLING INSTRUCTIONS:</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>&lt;- Should equals to 100%</t>
+  </si>
+  <si>
+    <t>1. Enter appropriate age band in column A</t>
+  </si>
+  <si>
+    <t>3. Enter % of members in each age band in column B. The sum of column B should equal to 100%</t>
+  </si>
+  <si>
+    <t>3. Rows can be inserted to accommodate more age bands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +86,23 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,18 +147,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -391,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,36 +456,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -455,6 +503,38 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8">
+        <f>SUM(B9:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/downloads/Age Distribution template.xlsx
+++ b/downloads/Age Distribution template.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="1060" windowWidth="35940" windowHeight="18020" tabRatio="500"/>
+    <workbookView xWindow="2460" yWindow="1060" windowWidth="35940" windowHeight="18020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Assumption -  Mem Dist by Age" sheetId="1" r:id="rId1"/>
+    <sheet name="Template -  Mem Dist by Age" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan A -  Mem Dist by Age" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>% of Members</t>
   </si>
@@ -47,19 +48,58 @@
     <t>&lt;- Should equals to 100%</t>
   </si>
   <si>
-    <t>1. Enter appropriate age band in column A</t>
-  </si>
-  <si>
-    <t>3. Enter % of members in each age band in column B. The sum of column B should equal to 100%</t>
-  </si>
-  <si>
-    <t>3. Rows can be inserted to accommodate more age bands</t>
+    <t>3. More rows can be inserted to accommodate more age bands</t>
+  </si>
+  <si>
+    <t>1. Enter appropriate age band in the [Age Band] column</t>
+  </si>
+  <si>
+    <t>3. Enter % of members in each age band in column [% of Members]. The sum of  this column should equal to 100%</t>
+  </si>
+  <si>
+    <t>Newborn (0-1m)</t>
+  </si>
+  <si>
+    <t>1m-2y</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>12-17</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75-84</t>
+  </si>
+  <si>
+    <t>&gt;=85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -151,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -161,6 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +483,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,17 +504,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.25">
@@ -533,6 +574,166 @@
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8">
+        <f>SUM(B9:B20)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
